--- a/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200218.xlsx
+++ b/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200218.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\疫情数据收集\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9319" uniqueCount="3301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9371" uniqueCount="3305">
   <si>
     <t>统计级别</t>
   </si>
@@ -10336,6 +10336,22 @@
 2020年2月18日0时至24时，山西省报告新增新型冠状病毒肺炎确诊病例1例，累计确诊病例131例。新增治愈出院8例，累计治愈出院61例。现有在院隔离治疗70例，其中重症6例，危重症2例。新增疑似病例3例，现有疑似病例22例。目前累计追踪到密切接触者4007人，当日解除医学观察93人，共有406人正在接受医学观察。
 单位：例
 微信图片_20200219025618.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已核查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林增敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核查通过</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10462,7 +10478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10517,6 +10533,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10800,8 +10817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U14"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11022,7 +11039,21 @@
       <c r="AB2" s="13" t="s">
         <v>3297</v>
       </c>
-      <c r="AD2" s="15"/>
+      <c r="AC2" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD2" s="15">
+        <v>43880.416666666664</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>3304</v>
+      </c>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
@@ -11081,8 +11112,23 @@
       <c r="AB3" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" ht="409.5">
+      <c r="AC3" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>43880.416666666664</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="16" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -11131,8 +11177,23 @@
       <c r="AB4" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" ht="409.5">
+      <c r="AC4" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="16" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11178,8 +11239,23 @@
       <c r="AB5" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" ht="409.5">
+      <c r="AC5" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD5" s="22">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="16" customHeight="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -11225,8 +11301,23 @@
       <c r="AB6" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" ht="409.5">
+      <c r="AC6" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="16" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -11278,8 +11369,23 @@
       <c r="AB7" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" ht="409.5">
+      <c r="AC7" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD7" s="22">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="16" customHeight="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -11328,8 +11434,23 @@
       <c r="AB8" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" ht="409.5">
+      <c r="AC8" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD8" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="16" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -11378,8 +11499,23 @@
       <c r="AB9" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" ht="409.5">
+      <c r="AC9" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD9" s="22">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF9" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="16" customHeight="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11428,8 +11564,23 @@
       <c r="AB10" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" ht="409.5">
+      <c r="AC10" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF10" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG10" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="16" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -11478,8 +11629,23 @@
       <c r="AB11" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" ht="409.5">
+      <c r="AC11" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD11" s="22">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG11" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="16" customHeight="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -11525,8 +11691,23 @@
       <c r="AB12" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" ht="409.5">
+      <c r="AC12" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="16" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -11572,8 +11753,23 @@
       <c r="AB13" s="13" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" ht="409.5">
+      <c r="AC13" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD13" s="22">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG13" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="16" customHeight="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -11612,6 +11808,21 @@
       </c>
       <c r="AB14" s="13" t="s">
         <v>3297</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>3304</v>
       </c>
     </row>
   </sheetData>
@@ -11624,7 +11835,7 @@
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AA2:AA1048576 AE2:AE1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
